--- a/biology/Botanique/Les_Croqueurs_de_pommes/Les_Croqueurs_de_pommes.xlsx
+++ b/biology/Botanique/Les_Croqueurs_de_pommes/Les_Croqueurs_de_pommes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'association française Les Croqueurs de Pommes est « l'association nationale des amateurs bénévoles pour la sauvegarde des variétés fruitières régionales méritantes en voie de disparition ».
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'association a été créée en juillet 1978 à Fontenelle (Territoire de Belfort) par Jean-Louis Choisel, avec deux amis : Jacques Barbier, avocat, et Frédéric Beley, responsable EDF, sur une initiative de Jean-Louis Choisel qui est à l'origine du renouveau pomologique en France. Commencée en Franche-Comté, l'aventure a dès le début reçu l'appui des médias. Elle correspond avec de nombreuses sociétés savantes ou autres associations. Son dynamisme et sa mobilité l'apparentent plus à un mouvement.
-En 2010, elle rassemble 60 groupes régionaux ou associations de taille très diverses autour de mêmes buts, le tout entièrement basé sur le bénévolat. La même année, elle a dépassé le nombre de 7 000 membres et regroupe alors 60 associations locales affiliées. Cependant, ce nombre d'adhérents ne tient pas compte des milliers de personnes qui y sont passées pour un temps - le temps d'apprendre une ou plusieurs techniques pour pouvoir réhabiliter leur propre verger, et qui sont elles aussi devenues des sources de diffusion de l'information dispensée par l'association[1].
+En 2010, elle rassemble 60 groupes régionaux ou associations de taille très diverses autour de mêmes buts, le tout entièrement basé sur le bénévolat. La même année, elle a dépassé le nombre de 7 000 membres et regroupe alors 60 associations locales affiliées. Cependant, ce nombre d'adhérents ne tient pas compte des milliers de personnes qui y sont passées pour un temps - le temps d'apprendre une ou plusieurs techniques pour pouvoir réhabiliter leur propre verger, et qui sont elles aussi devenues des sources de diffusion de l'information dispensée par l'association.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Objet de l'association</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'association est agréée au titre de la protection de la nature dans un cadre national (Art. L.160-1 du code de l'urbanisme).
 Elle a pour buts :
@@ -553,7 +569,7 @@
 l’édition d’un bulletin d’information et de liaison ;
 la publication et la diffusion de tout ouvrage ou document en rapport avec les buts visés ;
 toute activité contribuant à réaliser les objectifs sus énoncés.
-L'association des Croqueurs de Pommes fédère des associations locales autonomes autour d'un même objectif : « sauvegarder le patrimoine fruitier parfois vieillissant face aux activités humaines modernes souvent envahissantes et dévastatrices, et face à une production fruitière industrielle standardisée et fade soumise à des traitements intensifs ». À ces éléments restrictifs on se doit d'ajouter l'interdit de commercialisation de la plupart des variétés locales, une règle imposée par leur absence d'inscription au catalogue officiel du CTPS (Comité technique permanent de la sélection)[1].
+L'association des Croqueurs de Pommes fédère des associations locales autonomes autour d'un même objectif : « sauvegarder le patrimoine fruitier parfois vieillissant face aux activités humaines modernes souvent envahissantes et dévastatrices, et face à une production fruitière industrielle standardisée et fade soumise à des traitements intensifs ». À ces éléments restrictifs on se doit d'ajouter l'interdit de commercialisation de la plupart des variétés locales, une règle imposée par leur absence d'inscription au catalogue officiel du CTPS (Comité technique permanent de la sélection).
 En 1999, l'association s'enregistre à l'INPI (Institut national de la propriété industrielle) avec de nouveaux objectifs :
 - extraits de fruits : gelées confitures compotes - produits agricoles ; fruits - boissons de fruits et jus de fruits - éducation, formation, activités culturelles, édition de livres - organisation et conduites de colloques - organisation d'exposition à buts culturels et éducatifs.
 </t>
@@ -584,7 +600,9 @@
           <t>Actions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les actions bénévoles menées par les « croqueurs » visent :
 la recherche et la reproduction (par greffage) des variétés fruitières locales ou anciennes en voie de disparition ;
@@ -623,7 +641,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Chercheur de Pommes et de Poires, CDRom 2001/2015 - 18 éditions. Méthode Jean-Louis Choisel. Arrêt de la diffusion commerciale du logiciel, fin 2015.Téléchargement gratuit à http://croquepommes.origine.pagesperso-orange.fr 
 </t>
